--- a/DnaRepairSpreadsheetParser/test/exampleData/minAssayAnnotationSpreadsheets/Broad Institute_yzhang.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/minAssayAnnotationSpreadsheets/Broad Institute_yzhang.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="155">
   <si>
     <t>Instructions:
 Fill out from left to right.  Watch for red errors, correct them before moving on to the next column</t>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>DO:Tuberculosis</t>
+  </si>
+  <si>
+    <t>assay component role</t>
   </si>
 </sst>
 </file>
@@ -929,7 +932,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BL19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1094,7 +1099,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>25</v>
